--- a/biology/Botanique/Poa_compressa/Poa_compressa.xlsx
+++ b/biology/Botanique/Poa_compressa/Poa_compressa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poa compressa, le pâturin comprimé ou pâturin du Canada, est une espèce de plantes herbacées de la famille des Poacées semblable au Pâturin des prés (Poa pratensis). Elle est originaire d'Eurasie et d'Afrique du Nord, mais a été introduite presque partout dans le monde. Elle pousse sur les vieux murs, dans les espaces entre les pavés, dans prairies sèches et caillouteuses et divers autres habitats. Elle a une tige aplatie de 23 à 30 cm de haut et une panicule gris vert avec des fleurs violacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (30 octobre 2017)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Poa compressa proles langeana (Rchb.) Asch. &amp; Graebn.
 sous-espèce Poa compressa subsp. compressa
 sous-espèce Poa compressa subsp. langeana (Rchb.) Nyman
